--- a/Lectures and Assignment 2/Nguyen Xuan Binh_887799_ISM-C1004_Assignment_2.xlsx
+++ b/Lectures and Assignment 2/Nguyen Xuan Binh_887799_ISM-C1004_Assignment_2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1563924A-145E-4537-8934-4AF517E9C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191383CF-B977-4AE0-A764-EB898526800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="24" r:id="rId1"/>
     <sheet name="Problem 2" sheetId="25" r:id="rId2"/>
     <sheet name="Problem 3" sheetId="26" r:id="rId3"/>
     <sheet name="Problem 4" sheetId="27" r:id="rId4"/>
-    <sheet name="Problem 5" sheetId="20" r:id="rId5"/>
+    <sheet name="Problem 5" sheetId="28" r:id="rId5"/>
     <sheet name="Problem 6" sheetId="22" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -28,6 +28,7 @@
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 2'!$M$56:$W$68</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Problem 3'!$S$57:$V$69,'Problem 3'!$S$51:$V$53</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Problem 4'!$Q$55:$R$74,'Problem 4'!$Q$75</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Problem 5'!$N$33:$T$33</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
@@ -63,14 +64,14 @@
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem 2'!$M$56:$W$68</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Problem 3'!$S$51</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Problem 4'!$Q$55:$R$74</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Problem 5'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Problem 5'!$N$33:$T$33</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Problem 6'!#REF!</definedName>
     <definedName name="solver_lhs10" localSheetId="5" hidden="1">'Problem 6'!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1'!$J$52:$O$57</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem 2'!$M$69:$W$69</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Problem 3'!$S$54:$V$54</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Problem 4'!$Q$75</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Problem 5'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Problem 5'!$U$35:$U$41</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Problem 6'!#REF!</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1'!$J$64:$O$64</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem 2'!$X$56:$X$68</definedName>
@@ -123,7 +124,7 @@
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
@@ -135,7 +136,7 @@
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
@@ -147,6 +148,7 @@
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 2'!$X$53</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Problem 3'!$W$73</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Problem 4'!$S$83</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Problem 5'!$U$42</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
@@ -164,14 +166,14 @@
     <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_rel10" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
@@ -201,14 +203,14 @@
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">900</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'Problem 5'!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs10" localSheetId="5" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Problem 2'!$M$71:$W$71</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Problem 3'!$S$56:$V$56</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Problem 4'!$R$64</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Problem 5'!$W$35:$W$41</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 1'!$J$66:$O$66</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Problem 2'!$Z$56:$Z$68</definedName>
@@ -279,7 +281,7 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
@@ -334,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="177">
   <si>
     <t>To area</t>
   </si>
@@ -1208,6 +1210,60 @@
     <t>Decision variables
 Constraint # Binary</t>
   </si>
+  <si>
+    <t>Total clinic constructions cost</t>
+  </si>
+  <si>
+    <t>Minimize total construction costs</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality G</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality F</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality E</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality D</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality C</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality B</t>
+  </si>
+  <si>
+    <t>Constraint # Municipality A</t>
+  </si>
+  <si>
+    <t>Clinics built</t>
+  </si>
+  <si>
+    <t>xG</t>
+  </si>
+  <si>
+    <t>xF</t>
+  </si>
+  <si>
+    <t>xE</t>
+  </si>
+  <si>
+    <t>xD</t>
+  </si>
+  <si>
+    <t>xC</t>
+  </si>
+  <si>
+    <t>xB</t>
+  </si>
+  <si>
+    <t>xA</t>
+  </si>
 </sst>
 </file>
 
@@ -1377,7 +1433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1837,11 +1893,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2245,129 +2316,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2395,12 +2343,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2423,6 +2365,150 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -29396,8 +29482,8 @@
       <xdr:rowOff>11765</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9772650" cy="18799695"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -30163,7 +30249,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30176,7 +30262,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30190,7 +30276,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30496,11 +30582,23 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>m</m:t>
+                    <m:t>max</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
                   </m:r>
                   <m:r>
                     <m:rPr>
@@ -30515,33 +30613,6 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>ax</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:sty m:val="p"/>
-                    </m:rPr>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
                     <m:t>z</m:t>
                   </m:r>
                   <m:r>
@@ -30550,7 +30621,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -30562,7 +30633,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -30577,7 +30648,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30590,7 +30661,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30602,7 +30673,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30616,7 +30687,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30630,7 +30701,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30644,7 +30715,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30657,7 +30728,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30671,7 +30742,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30687,7 +30758,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30700,7 +30771,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30714,7 +30785,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30728,7 +30799,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30742,7 +30813,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30755,7 +30826,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30769,7 +30840,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30783,7 +30854,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30799,7 +30870,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30812,7 +30883,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30826,7 +30897,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30840,7 +30911,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30854,7 +30925,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30883,7 +30954,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30908,23 +30979,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>1</m:t>
+                        <m:t>=1</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -30948,7 +31007,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30962,7 +31021,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30975,7 +31034,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -30989,7 +31048,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31005,7 +31064,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31018,7 +31077,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31032,7 +31091,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31046,7 +31105,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31060,7 +31119,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31073,7 +31132,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31087,7 +31146,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31101,7 +31160,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31117,7 +31176,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31130,7 +31189,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31144,7 +31203,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31158,7 +31217,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31172,7 +31231,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31223,7 +31282,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31236,7 +31295,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31250,7 +31309,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31282,7 +31341,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31295,7 +31354,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31309,7 +31368,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31323,7 +31382,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31355,7 +31414,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31368,7 +31427,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31382,7 +31441,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31414,7 +31473,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31427,7 +31486,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31441,7 +31500,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31455,7 +31514,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31556,7 +31615,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -31592,7 +31650,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31605,7 +31663,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31617,7 +31675,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31631,7 +31689,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31662,7 +31720,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31689,7 +31747,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31705,7 +31763,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31718,7 +31776,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31732,7 +31790,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31746,7 +31804,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -31760,7 +31818,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31787,7 +31845,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31801,7 +31859,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31817,7 +31875,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31830,7 +31888,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31844,7 +31902,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31858,7 +31916,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -31952,7 +32010,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31965,7 +32023,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -31979,7 +32037,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32011,7 +32069,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32024,7 +32082,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32038,7 +32096,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32052,7 +32110,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32082,7 +32140,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -32211,7 +32269,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32224,7 +32282,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32238,7 +32296,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32266,7 +32324,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32279,7 +32337,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32293,7 +32351,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32307,7 +32365,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32321,23 +32379,11 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≤</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>1</m:t>
+                    <m:t>≤1</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -32496,7 +32542,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
@@ -32518,7 +32563,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -32531,540 +32576,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>10</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>   </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>11</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>   </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑠</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Both stands not damped        0      0       0    (s must be 0 since no stands are damped)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Only </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>10</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> is damped                 1      0       0    (s must be 0 since only one stand is damped)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Only </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> is damped                 0      1       0    (s must be 0 since only one stand is damped)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Both stands are damped        1      1       1    (s must be 1 since both stands are damped)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>From this table,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> we can conclude that that in all 4 cases, it must be true that     </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑠</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≤</m:t>
-                  </m:r>
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33092,7 +32604,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33103,16 +32615,101 @@
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>   and  </a:t>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>11</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -33122,7 +32719,345 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑠</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Both stands not damped        0      0       0    (s must be 0 since no stands are damped)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Only </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>10</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> is damped                 1      0       0    (s must be 0 since only one stand is damped)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Only </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>11</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> is damped                 0      1       0    (s must be 0 since only one stand is damped)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Both stands are damped        1      1       1    (s must be 1 since both stands are damped)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From this table,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> we can conclude that that in all 4 cases, it must be true that     </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -33134,7 +33069,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -33148,7 +33083,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33161,7 +33096,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33175,7 +33110,104 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>10</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   and  </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≤</m:t>
+                  </m:r>
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33189,7 +33221,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33203,7 +33235,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -33292,7 +33324,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33305,7 +33337,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33319,7 +33351,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33347,7 +33379,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33360,7 +33392,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33374,7 +33406,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -33388,7 +33420,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -34271,7 +34303,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -37642,15 +37674,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6143625" cy="3809999"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="6143625" cy="8978348"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06432EEE-D939-45B8-8080-4E95A809494D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37658,8 +37690,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="142875" y="523875"/>
-              <a:ext cx="6143625" cy="3809999"/>
+              <a:off x="609600" y="365760"/>
+              <a:ext cx="6143625" cy="8978348"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -37756,19 +37788,43 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (a):</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -37776,6 +37832,1062 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>,…, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐺</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∈</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="{"/>
+                      <m:endChr m:val="}"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0,1</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>. (3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>pts)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Formulation</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> of</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> the Binary Linear Programming Model</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1. Decision Variables</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Number of decision variables is 7.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> They are b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>inary (0 or 1), indicating whether to build a clinic in each municipality.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2. Objective Function</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The objective is to minimize the total construction cost. Thus, the objective function is:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>min</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑧</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>.1</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+3.6</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+3.15</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+4.05</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐷</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+2.85</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2.7</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐹</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3.6</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐺</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3. Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>We need to ensure that every municipality has access to a clinic within a 30 minutes' driving distance.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>As a result,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for each municipality, we only consider building a clinic that is within 30 minutes driving or inside the municipality itself, and omitting those with more than 30 minutes driving. We can obtain 7 constraints as follows</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" b="1">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Municipality A</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI"/>
+                <a:t> (clinic in A or B): </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -37832,7 +38944,554 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>,…, </m:t>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality B</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in A, B, C, or D): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality C</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or G): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐴</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
                   </m:r>
                   <m:sSub>
                     <m:sSubPr>
@@ -37887,12 +39546,52 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>∈</m:t>
+                    <m:t>≥1</m:t>
                   </m:r>
-                  <m:d>
-                    <m:dPr>
-                      <m:begChr m:val="{"/>
-                      <m:endChr m:val="}"/>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality D</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or F): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
@@ -37904,7 +39603,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                       </m:ctrlPr>
-                    </m:dPr>
+                    </m:sSubPr>
                     <m:e>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -37916,26 +39615,260 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>0,1</m:t>
+                        <m:t>𝑥</m:t>
                       </m:r>
                     </m:e>
-                  </m:d>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐹</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐺</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>. (3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -37946,21 +39879,575 @@
                 </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>pts)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100">
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality E</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐸</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐹</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality F</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐸</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐹</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality G</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in C or G): </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐺</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -37971,26 +40458,45 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Binary constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:func>
-                    <m:funcPr>
+                  <m:sSub>
+                    <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -37998,141 +40504,117 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                       </m:ctrlPr>
-                    </m:funcPr>
-                    <m:fName>
+                    </m:sSubPr>
+                    <m:e>
                       <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>min</m:t>
+                        <m:t>𝑥</m:t>
                       </m:r>
-                    </m:fName>
-                    <m:e>
+                    </m:e>
+                    <m:sub>
                       <m:r>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>3</m:t>
+                        <m:t>𝐴</m:t>
                       </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, …,</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>.1</m:t>
-                      </m:r>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
                       <m:r>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>5</m:t>
+                        <m:t>𝑥</m:t>
                       </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:srgbClr val="FF0000"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:srgbClr val="FF0000"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑥</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:srgbClr val="FF0000"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝐴</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
+                    </m:e>
+                    <m:sub>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>+</m:t>
+                        <m:t>𝐺</m:t>
                       </m:r>
-                    </m:e>
-                  </m:func>
+                    </m:sub>
+                  </m:sSub>
                   <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
                       <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>…</m:t>
+                    <m:t>∈{0;1}</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US">
@@ -38143,7 +40625,31 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -38155,19 +40661,19 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> and report the municipalities to which clinics should be built as well as  the optimal total cost</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> and report the municipalities to which clinics should be built as well as the optimal total cost</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -38189,41 +40695,18 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The spreadsheet model to solve this BLP problem has been implemented on the right</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US">
@@ -38232,272 +40715,59 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" b="0"/>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>There are 3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> clinics that need to be built, and they are located in the municipalities </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>A, C, F</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>The optimal total construction cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>9 million euros</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" b="1">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06432EEE-D939-45B8-8080-4E95A809494D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38505,8 +40775,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="142875" y="523875"/>
-              <a:ext cx="6143625" cy="3809999"/>
+              <a:off x="609600" y="365760"/>
+              <a:ext cx="6143625" cy="8978348"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -38603,19 +40873,43 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (a):</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Mathematically formulate a BLP model that identifies those municipalities to which clinics should be built so that the total construction costs are minimized and all municipalities have a clinic within a 30 minute driving distance. Use decision variables</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -38627,7 +40921,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -38639,7 +40933,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -38651,7 +40945,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -38663,7 +40957,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -38675,6 +40969,58 @@
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Formulation</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> of</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> the Binary Linear Programming Model</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -38686,134 +41032,32 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>min⁡〖</a:t>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1. Decision Variables</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>.1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥_𝐴+〗…</a:t>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Implement a spreadsheet model to solve this BLP</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> and report the municipalities to which clinics should be built as well as  the optimal total cost</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (3 pts)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -38840,286 +41084,928 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="fi-FI">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Number of decision variables is 7.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> They are b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>inary (0 or 1), indicating whether to build a clinic in each municipality.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" b="0"/>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2. Objective Function</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The objective is to minimize the total construction cost. Thus, the objective function is:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖min 𝑧=〗⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>.1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐴+3.6𝑥_𝐵+3.15𝑥_𝐶+4.05𝑥_𝐷+2.85𝑥_𝐸+〖2.7𝑥〗_𝐹 〗+〖3.6𝑥〗_𝐺</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3. Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>We need to ensure that every municipality has access to a clinic within a 30 minutes' driving distance.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>As a result,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for each municipality, we only consider building a clinic that is within 30 minutes driving or inside the municipality itself, and omitting those with more than 30 minutes driving. We can obtain 7 constraints as follows</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" b="1">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Municipality A</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI"/>
+                <a:t> (clinic in A or B): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐴+𝑥_𝐵+𝑥_𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≥1</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality B</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in A, B, C, or D): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐴+𝑥_𝐵+𝑥_𝐷≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality C</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or G): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑥_𝐴+𝑥〗_𝐶+𝑥_𝐷+𝑥_𝐺≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality D</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in B, C, D, or F): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐵+𝑥_𝐶+𝑥_𝐷+𝑥_𝐹+𝑥_𝐺≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality E</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐸+𝑥_𝐹≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality F</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in D, E, or F): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐷+𝑥_𝐸+𝑥_𝐹≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Municipality G</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (clinic in C or G): </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝐶+𝑥_𝐷+𝑥_𝐺≥1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Binary constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴, …,𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐺∈{0;1}</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b) Implement a spreadsheet model to solve this BLP</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> and report the municipalities to which clinics should be built as well as the optimal total cost</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (3 pts)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The spreadsheet model to solve this BLP problem has been implemented on the right</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>There are 3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> clinics that need to be built, and they are located in the municipalities </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>A, C, F</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>The optimal total construction cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>9 million euros</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" b="1">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -39137,10 +42023,10 @@
     <xdr:ext cx="5038724" cy="3807546"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B78CEEC-2161-4749-AFFC-917B73133486}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39148,7 +42034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6494463" y="525464"/>
+          <a:off x="7018338" y="367349"/>
           <a:ext cx="5038724" cy="3807546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -43290,14 +46176,14 @@
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I24" s="108"/>
-      <c r="J24" s="145" t="s">
+      <c r="J24" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="147"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="164"/>
     </row>
     <row r="25" spans="9:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="99" t="s">
@@ -43529,14 +46415,14 @@
       <c r="I39" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="J39" s="145" t="s">
+      <c r="J39" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="147"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="164"/>
     </row>
     <row r="40" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I40" s="99" t="s">
@@ -43714,14 +46600,14 @@
       <c r="I50" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="J50" s="148" t="s">
+      <c r="J50" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="K50" s="148"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
-      <c r="N50" s="148"/>
-      <c r="O50" s="148"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="165"/>
+      <c r="N50" s="165"/>
+      <c r="O50" s="165"/>
     </row>
     <row r="51" spans="9:16" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I51" s="93" t="s">
@@ -44105,10 +46991,10 @@
       </c>
     </row>
     <row r="69" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I69" s="149" t="s">
+      <c r="I69" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="J69" s="149"/>
+      <c r="J69" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -44244,10 +47130,10 @@
       <c r="M21" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="150" t="s">
+      <c r="N21" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="151"/>
+      <c r="O21" s="168"/>
     </row>
     <row r="22" spans="8:23" x14ac:dyDescent="0.3">
       <c r="L22" s="33" t="s">
@@ -44436,19 +47322,19 @@
     <row r="37" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H37" s="15"/>
       <c r="L37" s="109"/>
-      <c r="M37" s="152" t="s">
+      <c r="M37" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152"/>
-      <c r="S37" s="152"/>
-      <c r="T37" s="152"/>
-      <c r="U37" s="152"/>
-      <c r="V37" s="152"/>
-      <c r="W37" s="152"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="169"/>
+      <c r="P37" s="169"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="169"/>
+      <c r="U37" s="169"/>
+      <c r="V37" s="169"/>
+      <c r="W37" s="169"/>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H38" s="15"/>
@@ -45008,19 +47894,19 @@
     </row>
     <row r="54" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L54" s="109"/>
-      <c r="M54" s="152" t="s">
+      <c r="M54" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="N54" s="152"/>
-      <c r="O54" s="152"/>
-      <c r="P54" s="152"/>
-      <c r="Q54" s="152"/>
-      <c r="R54" s="152"/>
-      <c r="S54" s="152"/>
-      <c r="T54" s="152"/>
-      <c r="U54" s="152"/>
-      <c r="V54" s="152"/>
-      <c r="W54" s="152"/>
+      <c r="N54" s="169"/>
+      <c r="O54" s="169"/>
+      <c r="P54" s="169"/>
+      <c r="Q54" s="169"/>
+      <c r="R54" s="169"/>
+      <c r="S54" s="169"/>
+      <c r="T54" s="169"/>
+      <c r="U54" s="169"/>
+      <c r="V54" s="169"/>
+      <c r="W54" s="169"/>
     </row>
     <row r="55" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L55" s="109" t="s">
@@ -45817,11 +48703,11 @@
       <c r="S72" s="111"/>
     </row>
     <row r="73" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L73" s="149" t="s">
+      <c r="L73" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="M73" s="149"/>
-      <c r="N73" s="149"/>
+      <c r="M73" s="166"/>
+      <c r="N73" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -46038,24 +48924,24 @@
       <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="2:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q22" s="153" t="s">
+      <c r="Q22" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="R22" s="154"/>
-      <c r="S22" s="157" t="s">
+      <c r="R22" s="187"/>
+      <c r="S22" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="X22" s="158" t="s">
+      <c r="T22" s="170"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="170"/>
+      <c r="X22" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="Y22" s="159" t="s">
+      <c r="Y22" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="161"/>
+      <c r="Z22" s="192"/>
+      <c r="AA22" s="193"/>
       <c r="AB22" s="5"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="5"/>
@@ -46064,8 +48950,8 @@
       <c r="AI22" s="14"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
+      <c r="Q23" s="188"/>
+      <c r="R23" s="189"/>
       <c r="S23" s="136" t="s">
         <v>86</v>
       </c>
@@ -46078,7 +48964,7 @@
       <c r="V23" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="X23" s="158"/>
+      <c r="X23" s="190"/>
       <c r="Y23" s="136" t="s">
         <v>47</v>
       </c>
@@ -46096,7 +48982,7 @@
       <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q24" s="162" t="s">
+      <c r="Q24" s="194" t="s">
         <v>141</v>
       </c>
       <c r="R24" s="136" t="s">
@@ -46114,7 +49000,7 @@
       <c r="V24" s="142">
         <v>160</v>
       </c>
-      <c r="X24" s="158"/>
+      <c r="X24" s="190"/>
       <c r="Y24" s="143">
         <v>9900</v>
       </c>
@@ -46130,7 +49016,7 @@
       <c r="AI24"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q25" s="163"/>
+      <c r="Q25" s="195"/>
       <c r="R25" s="136" t="s">
         <v>48</v>
       </c>
@@ -46158,7 +49044,7 @@
       <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q26" s="164"/>
+      <c r="Q26" s="196"/>
       <c r="R26" s="136" t="s">
         <v>49</v>
       </c>
@@ -46258,11 +49144,11 @@
       <c r="U29" s="122"/>
       <c r="V29" s="122"/>
       <c r="W29" s="122"/>
-      <c r="X29" s="165" t="s">
+      <c r="X29" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="167"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="184"/>
       <c r="AB29" s="5"/>
       <c r="AG29"/>
       <c r="AH29"/>
@@ -46270,16 +49156,16 @@
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
-      <c r="Q30" s="168" t="s">
+      <c r="Q30" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="R30" s="169"/>
-      <c r="S30" s="172" t="s">
+      <c r="R30" s="176"/>
+      <c r="S30" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="172"/>
+      <c r="T30" s="185"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="185"/>
       <c r="W30" s="122"/>
       <c r="X30" s="173" t="s">
         <v>52</v>
@@ -46298,8 +49184,8 @@
     </row>
     <row r="31" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="171"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="178"/>
       <c r="S31" s="130">
         <f t="array" ref="S31:V31">TRANSPOSE(R27:R27)</f>
         <v>0</v>
@@ -46329,7 +49215,7 @@
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
-      <c r="Q32" s="175" t="s">
+      <c r="Q32" s="172" t="s">
         <v>52</v>
       </c>
       <c r="R32" s="139" t="s">
@@ -46777,16 +49663,16 @@
       <c r="AI48"/>
     </row>
     <row r="49" spans="17:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q49" s="157" t="s">
+      <c r="Q49" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="R49" s="157"/>
-      <c r="S49" s="157" t="s">
+      <c r="R49" s="170"/>
+      <c r="S49" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="T49" s="157"/>
-      <c r="U49" s="157"/>
-      <c r="V49" s="157"/>
+      <c r="T49" s="170"/>
+      <c r="U49" s="170"/>
+      <c r="V49" s="170"/>
       <c r="W49" s="122"/>
       <c r="X49" s="122"/>
       <c r="Y49" s="122"/>
@@ -46796,8 +49682,8 @@
       <c r="AI49"/>
     </row>
     <row r="50" spans="17:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q50" s="157"/>
-      <c r="R50" s="157"/>
+      <c r="Q50" s="170"/>
+      <c r="R50" s="170"/>
       <c r="S50" s="136" t="s">
         <v>86</v>
       </c>
@@ -46825,7 +49711,7 @@
       <c r="AI50"/>
     </row>
     <row r="51" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q51" s="176" t="s">
+      <c r="Q51" s="171" t="s">
         <v>141</v>
       </c>
       <c r="R51" s="136" t="s">
@@ -46859,7 +49745,7 @@
       <c r="AI51"/>
     </row>
     <row r="52" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q52" s="176"/>
+      <c r="Q52" s="171"/>
       <c r="R52" s="136" t="s">
         <v>48</v>
       </c>
@@ -46891,7 +49777,7 @@
       <c r="AI52"/>
     </row>
     <row r="53" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q53" s="176"/>
+      <c r="Q53" s="171"/>
       <c r="R53" s="136" t="s">
         <v>49</v>
       </c>
@@ -46950,10 +49836,10 @@
       <c r="AI54"/>
     </row>
     <row r="55" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q55" s="149" t="s">
+      <c r="Q55" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="R55" s="149"/>
+      <c r="R55" s="166"/>
       <c r="S55" s="132" t="s">
         <v>110</v>
       </c>
@@ -46999,7 +49885,7 @@
       <c r="AI56"/>
     </row>
     <row r="57" spans="17:35" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q57" s="175" t="s">
+      <c r="Q57" s="172" t="s">
         <v>52</v>
       </c>
       <c r="R57" s="130" t="s">
@@ -47417,10 +50303,10 @@
       <c r="AI69"/>
     </row>
     <row r="70" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q70" s="168" t="s">
+      <c r="Q70" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="R70" s="169"/>
+      <c r="R70" s="176"/>
       <c r="S70" s="126" t="s">
         <v>86</v>
       </c>
@@ -47448,14 +50334,14 @@
       <c r="AI70"/>
     </row>
     <row r="71" spans="17:35" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q71" s="170"/>
-      <c r="R71" s="171"/>
-      <c r="S71" s="177" t="s">
+      <c r="Q71" s="177"/>
+      <c r="R71" s="178"/>
+      <c r="S71" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="T71" s="178"/>
-      <c r="U71" s="178"/>
-      <c r="V71" s="179"/>
+      <c r="T71" s="180"/>
+      <c r="U71" s="180"/>
+      <c r="V71" s="181"/>
       <c r="W71" s="122"/>
       <c r="X71" s="122"/>
       <c r="Y71" s="122"/>
@@ -47474,10 +50360,10 @@
       <c r="AI72"/>
     </row>
     <row r="73" spans="17:35" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q73" s="149" t="s">
+      <c r="Q73" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="R73" s="149"/>
+      <c r="R73" s="166"/>
       <c r="W73" s="123">
         <f>SUMPRODUCT(S24:V26,S51:V53) + SUMPRODUCT(S32:V44, S57:V69)</f>
         <v>3490420</v>
@@ -47488,10 +50374,10 @@
       <c r="AI73"/>
     </row>
     <row r="74" spans="17:35" x14ac:dyDescent="0.3">
-      <c r="Q74" s="149" t="s">
+      <c r="Q74" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="R74" s="149"/>
+      <c r="R74" s="166"/>
       <c r="Z74" s="122"/>
       <c r="AG74"/>
       <c r="AH74"/>
@@ -47610,6 +50496,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="X22:X24"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="X30:X42"/>
+    <mergeCell ref="Q32:Q44"/>
     <mergeCell ref="Q49:R50"/>
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="Q74:R74"/>
@@ -47619,16 +50515,6 @@
     <mergeCell ref="Q70:R71"/>
     <mergeCell ref="S71:V71"/>
     <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="Q30:R31"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="X30:X42"/>
-    <mergeCell ref="Q32:Q44"/>
-    <mergeCell ref="Q22:R23"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="X22:X24"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Q24:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47640,7 +50526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053AF465-B393-4EC5-81FB-697E49D14D13}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
@@ -47679,25 +50565,25 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P28" s="180" t="s">
+      <c r="P28" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="Q28" s="182" t="s">
+      <c r="Q28" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="183"/>
-      <c r="S28" s="182" t="s">
+      <c r="R28" s="200"/>
+      <c r="S28" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="T28" s="183"/>
-      <c r="U28" s="182" t="s">
+      <c r="T28" s="200"/>
+      <c r="U28" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="V28" s="183"/>
+      <c r="V28" s="200"/>
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="16:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P29" s="181"/>
+      <c r="P29" s="198"/>
       <c r="Q29" s="80" t="s">
         <v>79</v>
       </c>
@@ -47722,22 +50608,22 @@
       <c r="P30" s="78">
         <v>1</v>
       </c>
-      <c r="Q30" s="204">
+      <c r="Q30" s="161">
         <v>17.541713640000008</v>
       </c>
-      <c r="R30" s="203">
+      <c r="R30" s="160">
         <v>-39.371286360000006</v>
       </c>
-      <c r="S30" s="202">
+      <c r="S30" s="159">
         <v>25</v>
       </c>
-      <c r="T30" s="201">
+      <c r="T30" s="158">
         <v>4</v>
       </c>
-      <c r="U30" s="202">
+      <c r="U30" s="159">
         <v>4975</v>
       </c>
-      <c r="V30" s="201">
+      <c r="V30" s="158">
         <v>2488</v>
       </c>
       <c r="W30" s="5"/>
@@ -47746,22 +50632,22 @@
       <c r="P31" s="78">
         <v>2</v>
       </c>
-      <c r="Q31" s="204">
+      <c r="Q31" s="161">
         <v>33.229686399999999</v>
       </c>
-      <c r="R31" s="203">
+      <c r="R31" s="160">
         <v>2.7688864000000009</v>
       </c>
-      <c r="S31" s="202">
+      <c r="S31" s="159">
         <v>33</v>
       </c>
-      <c r="T31" s="201">
+      <c r="T31" s="158">
         <v>1</v>
       </c>
-      <c r="U31" s="202">
+      <c r="U31" s="159">
         <v>2807</v>
       </c>
-      <c r="V31" s="201">
+      <c r="V31" s="158">
         <v>1404</v>
       </c>
       <c r="W31" s="5"/>
@@ -47770,22 +50656,22 @@
       <c r="P32" s="78">
         <v>3</v>
       </c>
-      <c r="Q32" s="204">
+      <c r="Q32" s="161">
         <v>102.50656098</v>
       </c>
-      <c r="R32" s="203">
+      <c r="R32" s="160">
         <v>25.65083598</v>
       </c>
-      <c r="S32" s="202">
+      <c r="S32" s="159">
         <v>30</v>
       </c>
-      <c r="T32" s="201">
+      <c r="T32" s="158">
         <v>2</v>
       </c>
-      <c r="U32" s="202">
+      <c r="U32" s="159">
         <v>4976</v>
       </c>
-      <c r="V32" s="201">
+      <c r="V32" s="158">
         <v>2488</v>
       </c>
       <c r="W32" s="5"/>
@@ -47794,22 +50680,22 @@
       <c r="P33" s="78">
         <v>4</v>
       </c>
-      <c r="Q33" s="204">
+      <c r="Q33" s="161">
         <v>86.606040000000007</v>
       </c>
-      <c r="R33" s="203">
+      <c r="R33" s="160">
         <v>7.2164400000000004</v>
       </c>
-      <c r="S33" s="202">
+      <c r="S33" s="159">
         <v>29</v>
       </c>
-      <c r="T33" s="201">
+      <c r="T33" s="158">
         <v>2</v>
       </c>
-      <c r="U33" s="202">
+      <c r="U33" s="159">
         <v>7367</v>
       </c>
-      <c r="V33" s="201">
+      <c r="V33" s="158">
         <v>3683</v>
       </c>
       <c r="W33" s="5"/>
@@ -47818,22 +50704,22 @@
       <c r="P34" s="78">
         <v>5</v>
       </c>
-      <c r="Q34" s="204">
+      <c r="Q34" s="161">
         <v>27.94822151999999</v>
       </c>
-      <c r="R34" s="203">
+      <c r="R34" s="160">
         <v>-62.728278480000007</v>
       </c>
-      <c r="S34" s="202">
+      <c r="S34" s="159">
         <v>24</v>
       </c>
-      <c r="T34" s="201">
+      <c r="T34" s="158">
         <v>-1</v>
       </c>
-      <c r="U34" s="202">
+      <c r="U34" s="159">
         <v>7926</v>
       </c>
-      <c r="V34" s="201">
+      <c r="V34" s="158">
         <v>3963</v>
       </c>
       <c r="W34" s="5"/>
@@ -47842,22 +50728,22 @@
       <c r="P35" s="78">
         <v>6</v>
       </c>
-      <c r="Q35" s="204">
+      <c r="Q35" s="161">
         <v>31.191460719999998</v>
       </c>
-      <c r="R35" s="203">
+      <c r="R35" s="160">
         <v>-70.007539280000003</v>
       </c>
-      <c r="S35" s="202">
+      <c r="S35" s="159">
         <v>19</v>
       </c>
-      <c r="T35" s="201">
+      <c r="T35" s="158">
         <v>0</v>
       </c>
-      <c r="U35" s="202">
+      <c r="U35" s="159">
         <v>8848</v>
       </c>
-      <c r="V35" s="201">
+      <c r="V35" s="158">
         <v>4424</v>
       </c>
       <c r="W35" s="5"/>
@@ -47866,22 +50752,22 @@
       <c r="P36" s="78">
         <v>7</v>
       </c>
-      <c r="Q36" s="204">
+      <c r="Q36" s="161">
         <v>11.026973520000004</v>
       </c>
-      <c r="R36" s="203">
+      <c r="R36" s="160">
         <v>-24.74952648</v>
       </c>
-      <c r="S36" s="202">
+      <c r="S36" s="159">
         <v>24</v>
       </c>
-      <c r="T36" s="201">
+      <c r="T36" s="158">
         <v>-1</v>
       </c>
-      <c r="U36" s="202">
+      <c r="U36" s="159">
         <v>3128</v>
       </c>
-      <c r="V36" s="201">
+      <c r="V36" s="158">
         <v>1564</v>
       </c>
       <c r="W36" s="5"/>
@@ -47890,22 +50776,22 @@
       <c r="P37" s="78">
         <v>8</v>
       </c>
-      <c r="Q37" s="204">
+      <c r="Q37" s="161">
         <v>15.90601288</v>
       </c>
-      <c r="R37" s="203">
+      <c r="R37" s="160">
         <v>-35.699987120000003</v>
       </c>
-      <c r="S37" s="202">
+      <c r="S37" s="159">
         <v>27</v>
       </c>
-      <c r="T37" s="201">
+      <c r="T37" s="158">
         <v>-1</v>
       </c>
-      <c r="U37" s="202">
+      <c r="U37" s="159">
         <v>5154</v>
       </c>
-      <c r="V37" s="201">
+      <c r="V37" s="158">
         <v>2577</v>
       </c>
       <c r="W37" s="5"/>
@@ -47914,22 +50800,22 @@
       <c r="P38" s="78">
         <v>9</v>
       </c>
-      <c r="Q38" s="204">
+      <c r="Q38" s="161">
         <v>116.7742897</v>
       </c>
-      <c r="R38" s="203">
+      <c r="R38" s="160">
         <v>29.221164699999999</v>
       </c>
-      <c r="S38" s="202">
+      <c r="S38" s="159">
         <v>37</v>
       </c>
-      <c r="T38" s="201">
+      <c r="T38" s="158">
         <v>1</v>
       </c>
-      <c r="U38" s="202">
+      <c r="U38" s="159">
         <v>5499</v>
       </c>
-      <c r="V38" s="201">
+      <c r="V38" s="158">
         <v>2750</v>
       </c>
       <c r="W38" s="5"/>
@@ -47938,22 +50824,22 @@
       <c r="P39" s="78">
         <v>10</v>
       </c>
-      <c r="Q39" s="204">
+      <c r="Q39" s="161">
         <v>29.922367120000008</v>
       </c>
-      <c r="R39" s="203">
+      <c r="R39" s="160">
         <v>-67.159132880000001</v>
       </c>
-      <c r="S39" s="202">
+      <c r="S39" s="159">
         <v>22</v>
       </c>
-      <c r="T39" s="201">
+      <c r="T39" s="158">
         <v>-3</v>
       </c>
-      <c r="U39" s="202">
+      <c r="U39" s="159">
         <v>8642</v>
       </c>
-      <c r="V39" s="201">
+      <c r="V39" s="158">
         <v>4321</v>
       </c>
       <c r="W39" s="5"/>
@@ -47962,22 +50848,22 @@
       <c r="P40" s="78">
         <v>11</v>
       </c>
-      <c r="Q40" s="204">
+      <c r="Q40" s="161">
         <v>23.421857260000003</v>
       </c>
-      <c r="R40" s="203">
+      <c r="R40" s="160">
         <v>-52.568892739999995</v>
       </c>
-      <c r="S40" s="202">
+      <c r="S40" s="159">
         <v>24</v>
       </c>
-      <c r="T40" s="201">
+      <c r="T40" s="158">
         <v>-1</v>
       </c>
-      <c r="U40" s="202">
+      <c r="U40" s="159">
         <v>6643</v>
       </c>
-      <c r="V40" s="201">
+      <c r="V40" s="158">
         <v>3321</v>
       </c>
       <c r="W40" s="5"/>
@@ -47986,22 +50872,22 @@
       <c r="P41" s="78">
         <v>12</v>
       </c>
-      <c r="Q41" s="204">
+      <c r="Q41" s="161">
         <v>19.008241679999983</v>
       </c>
-      <c r="R41" s="203">
+      <c r="R41" s="160">
         <v>-42.662758320000002</v>
       </c>
-      <c r="S41" s="202">
+      <c r="S41" s="159">
         <v>21</v>
       </c>
-      <c r="T41" s="201">
+      <c r="T41" s="158">
         <v>-4</v>
       </c>
-      <c r="U41" s="202">
+      <c r="U41" s="159">
         <v>5392</v>
       </c>
-      <c r="V41" s="201">
+      <c r="V41" s="158">
         <v>2696</v>
       </c>
       <c r="W41" s="5"/>
@@ -48018,22 +50904,22 @@
       <c r="P42" s="78">
         <v>13</v>
       </c>
-      <c r="Q42" s="204">
+      <c r="Q42" s="161">
         <v>77.850943400000006</v>
       </c>
-      <c r="R42" s="203">
+      <c r="R42" s="160">
         <v>6.4869434000000012</v>
       </c>
-      <c r="S42" s="202">
+      <c r="S42" s="159">
         <v>30</v>
       </c>
-      <c r="T42" s="201">
+      <c r="T42" s="158">
         <v>1</v>
       </c>
-      <c r="U42" s="202">
+      <c r="U42" s="159">
         <v>6260</v>
       </c>
-      <c r="V42" s="201">
+      <c r="V42" s="158">
         <v>3130</v>
       </c>
       <c r="W42" s="5"/>
@@ -48042,22 +50928,22 @@
       <c r="P43" s="78">
         <v>14</v>
       </c>
-      <c r="Q43" s="204">
+      <c r="Q43" s="161">
         <v>18.994110820000014</v>
       </c>
-      <c r="R43" s="203">
+      <c r="R43" s="160">
         <v>-42.631139179999998</v>
       </c>
-      <c r="S43" s="202">
+      <c r="S43" s="159">
         <v>27</v>
       </c>
-      <c r="T43" s="201">
+      <c r="T43" s="158">
         <v>-1</v>
       </c>
-      <c r="U43" s="202">
+      <c r="U43" s="159">
         <v>5386</v>
       </c>
-      <c r="V43" s="201">
+      <c r="V43" s="158">
         <v>2693</v>
       </c>
       <c r="W43" s="5"/>
@@ -48066,22 +50952,22 @@
       <c r="P44" s="78">
         <v>15</v>
       </c>
-      <c r="Q44" s="204">
+      <c r="Q44" s="161">
         <v>274.22834905999997</v>
       </c>
-      <c r="R44" s="203">
+      <c r="R44" s="160">
         <v>68.621774059999993</v>
       </c>
-      <c r="S44" s="202">
+      <c r="S44" s="159">
         <v>22</v>
       </c>
-      <c r="T44" s="201">
+      <c r="T44" s="158">
         <v>3</v>
       </c>
-      <c r="U44" s="202">
+      <c r="U44" s="159">
         <v>12916</v>
       </c>
-      <c r="V44" s="201">
+      <c r="V44" s="158">
         <v>6458</v>
       </c>
       <c r="W44" s="5"/>
@@ -48090,22 +50976,22 @@
       <c r="P45" s="78">
         <v>16</v>
       </c>
-      <c r="Q45" s="204">
+      <c r="Q45" s="161">
         <v>11.294962859999996</v>
       </c>
-      <c r="R45" s="203">
+      <c r="R45" s="160">
         <v>-25.350787140000001</v>
       </c>
-      <c r="S45" s="202">
+      <c r="S45" s="159">
         <v>23</v>
       </c>
-      <c r="T45" s="201">
+      <c r="T45" s="158">
         <v>0</v>
       </c>
-      <c r="U45" s="202">
+      <c r="U45" s="159">
         <v>3203</v>
       </c>
-      <c r="V45" s="201">
+      <c r="V45" s="158">
         <v>1601</v>
       </c>
       <c r="W45" s="5"/>
@@ -48114,22 +51000,22 @@
       <c r="P46" s="78">
         <v>17</v>
       </c>
-      <c r="Q46" s="204">
+      <c r="Q46" s="161">
         <v>7.0363891400000016</v>
       </c>
-      <c r="R46" s="203">
+      <c r="R46" s="160">
         <v>-15.792860860000001</v>
       </c>
-      <c r="S46" s="202">
+      <c r="S46" s="159">
         <v>27</v>
       </c>
-      <c r="T46" s="201">
+      <c r="T46" s="158">
         <v>-1</v>
       </c>
-      <c r="U46" s="202">
+      <c r="U46" s="159">
         <v>1997</v>
       </c>
-      <c r="V46" s="201">
+      <c r="V46" s="158">
         <v>999</v>
       </c>
       <c r="W46" s="5"/>
@@ -48138,22 +51024,22 @@
       <c r="P47" s="78">
         <v>18</v>
       </c>
-      <c r="Q47" s="204">
+      <c r="Q47" s="161">
         <v>39.575831640000004</v>
       </c>
-      <c r="R47" s="203">
+      <c r="R47" s="160">
         <v>9.9032816400000012</v>
       </c>
-      <c r="S47" s="202">
+      <c r="S47" s="159">
         <v>33</v>
       </c>
-      <c r="T47" s="201">
+      <c r="T47" s="158">
         <v>1</v>
       </c>
-      <c r="U47" s="202">
+      <c r="U47" s="159">
         <v>1865</v>
       </c>
-      <c r="V47" s="201">
+      <c r="V47" s="158">
         <v>933</v>
       </c>
       <c r="W47" s="5"/>
@@ -48162,22 +51048,22 @@
       <c r="P48" s="78">
         <v>19</v>
       </c>
-      <c r="Q48" s="204">
+      <c r="Q48" s="161">
         <v>11.802580420000011</v>
       </c>
-      <c r="R48" s="203">
+      <c r="R48" s="160">
         <v>-26.490169579999996</v>
       </c>
-      <c r="S48" s="202">
+      <c r="S48" s="159">
         <v>19</v>
       </c>
-      <c r="T48" s="201">
+      <c r="T48" s="158">
         <v>0</v>
       </c>
-      <c r="U48" s="202">
+      <c r="U48" s="159">
         <v>3349</v>
       </c>
-      <c r="V48" s="201">
+      <c r="V48" s="158">
         <v>1675</v>
       </c>
       <c r="W48" s="5"/>
@@ -48186,22 +51072,22 @@
       <c r="P49" s="79">
         <v>20</v>
       </c>
-      <c r="Q49" s="200">
+      <c r="Q49" s="157">
         <v>261.40448392000002</v>
       </c>
-      <c r="R49" s="199">
+      <c r="R49" s="156">
         <v>65.412833919999997</v>
       </c>
-      <c r="S49" s="198">
+      <c r="S49" s="155">
         <v>27</v>
       </c>
-      <c r="T49" s="197">
+      <c r="T49" s="154">
         <v>2</v>
       </c>
-      <c r="U49" s="198">
+      <c r="U49" s="155">
         <v>12312</v>
       </c>
-      <c r="V49" s="197">
+      <c r="V49" s="154">
         <v>6156</v>
       </c>
       <c r="W49" s="5"/>
@@ -48227,20 +51113,20 @@
       <c r="W51" s="5"/>
     </row>
     <row r="53" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P53" s="195" t="s">
+      <c r="P53" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="Q53" s="196"/>
-      <c r="R53" s="196"/>
+      <c r="Q53" s="202"/>
+      <c r="R53" s="202"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="16:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="P54" s="195"/>
-      <c r="Q54" s="194" t="s">
+      <c r="P54" s="201"/>
+      <c r="Q54" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="R54" s="194" t="s">
+      <c r="R54" s="153" t="s">
         <v>147</v>
       </c>
       <c r="S54" s="5" t="s">
@@ -48249,23 +51135,23 @@
       <c r="T54" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U54" s="149" t="s">
+      <c r="U54" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="V54" s="149"/>
+      <c r="V54" s="166"/>
     </row>
     <row r="55" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P55" s="109">
         <v>1</v>
       </c>
-      <c r="Q55" s="193">
+      <c r="Q55" s="152">
         <v>0</v>
       </c>
-      <c r="R55" s="193">
+      <c r="R55" s="152">
         <v>1</v>
       </c>
-      <c r="S55" s="192">
-        <f>SUM(Q55:R55)</f>
+      <c r="S55" s="151">
+        <f t="shared" ref="S55:S74" si="0">SUM(Q55:R55)</f>
         <v>1</v>
       </c>
       <c r="T55" s="5" t="s">
@@ -48279,14 +51165,14 @@
       <c r="P56" s="109">
         <v>2</v>
       </c>
-      <c r="Q56" s="193">
+      <c r="Q56" s="152">
         <v>1</v>
       </c>
-      <c r="R56" s="193">
+      <c r="R56" s="152">
         <v>0</v>
       </c>
-      <c r="S56" s="192">
-        <f>SUM(Q56:R56)</f>
+      <c r="S56" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T56" s="5" t="s">
@@ -48300,14 +51186,14 @@
       <c r="P57" s="109">
         <v>3</v>
       </c>
-      <c r="Q57" s="193">
+      <c r="Q57" s="152">
         <v>0</v>
       </c>
-      <c r="R57" s="193">
+      <c r="R57" s="152">
         <v>0</v>
       </c>
-      <c r="S57" s="192">
-        <f>SUM(Q57:R57)</f>
+      <c r="S57" s="151">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T57" s="5" t="s">
@@ -48321,14 +51207,14 @@
       <c r="P58" s="109">
         <v>4</v>
       </c>
-      <c r="Q58" s="193">
+      <c r="Q58" s="152">
         <v>0</v>
       </c>
-      <c r="R58" s="193">
+      <c r="R58" s="152">
         <v>0</v>
       </c>
-      <c r="S58" s="192">
-        <f>SUM(Q58:R58)</f>
+      <c r="S58" s="151">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T58" s="5" t="s">
@@ -48342,14 +51228,14 @@
       <c r="P59" s="109">
         <v>5</v>
       </c>
-      <c r="Q59" s="193">
+      <c r="Q59" s="152">
         <v>0</v>
       </c>
-      <c r="R59" s="193">
+      <c r="R59" s="152">
         <v>1</v>
       </c>
-      <c r="S59" s="192">
-        <f>SUM(Q59:R59)</f>
+      <c r="S59" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T59" s="5" t="s">
@@ -48363,14 +51249,14 @@
       <c r="P60" s="109">
         <v>6</v>
       </c>
-      <c r="Q60" s="193">
+      <c r="Q60" s="152">
         <v>0</v>
       </c>
-      <c r="R60" s="193">
+      <c r="R60" s="152">
         <v>1</v>
       </c>
-      <c r="S60" s="192">
-        <f>SUM(Q60:R60)</f>
+      <c r="S60" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T60" s="5" t="s">
@@ -48384,14 +51270,14 @@
       <c r="P61" s="109">
         <v>7</v>
       </c>
-      <c r="Q61" s="193">
+      <c r="Q61" s="152">
         <v>1</v>
       </c>
-      <c r="R61" s="193">
+      <c r="R61" s="152">
         <v>0</v>
       </c>
-      <c r="S61" s="192">
-        <f>SUM(Q61:R61)</f>
+      <c r="S61" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T61" s="5" t="s">
@@ -48405,14 +51291,14 @@
       <c r="P62" s="109">
         <v>8</v>
       </c>
-      <c r="Q62" s="193">
+      <c r="Q62" s="152">
         <v>0</v>
       </c>
-      <c r="R62" s="193">
+      <c r="R62" s="152">
         <v>1</v>
       </c>
-      <c r="S62" s="192">
-        <f>SUM(Q62:R62)</f>
+      <c r="S62" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T62" s="5" t="s">
@@ -48426,14 +51312,14 @@
       <c r="P63" s="109">
         <v>9</v>
       </c>
-      <c r="Q63" s="193">
+      <c r="Q63" s="152">
         <v>0</v>
       </c>
-      <c r="R63" s="193">
+      <c r="R63" s="152">
         <v>0</v>
       </c>
-      <c r="S63" s="192">
-        <f>SUM(Q63:R63)</f>
+      <c r="S63" s="151">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T63" s="5" t="s">
@@ -48447,14 +51333,14 @@
       <c r="P64" s="109">
         <v>10</v>
       </c>
-      <c r="Q64" s="193">
+      <c r="Q64" s="152">
         <v>0</v>
       </c>
-      <c r="R64" s="193">
+      <c r="R64" s="152">
         <v>1</v>
       </c>
-      <c r="S64" s="192">
-        <f>SUM(Q64:R64)</f>
+      <c r="S64" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T64" s="5" t="s">
@@ -48468,14 +51354,14 @@
       <c r="P65" s="109">
         <v>11</v>
       </c>
-      <c r="Q65" s="193">
+      <c r="Q65" s="152">
         <v>0</v>
       </c>
-      <c r="R65" s="193">
+      <c r="R65" s="152">
         <v>1</v>
       </c>
-      <c r="S65" s="192">
-        <f>SUM(Q65:R65)</f>
+      <c r="S65" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T65" s="5" t="s">
@@ -48489,14 +51375,14 @@
       <c r="P66" s="109">
         <v>12</v>
       </c>
-      <c r="Q66" s="193">
+      <c r="Q66" s="152">
         <v>0</v>
       </c>
-      <c r="R66" s="193">
+      <c r="R66" s="152">
         <v>1</v>
       </c>
-      <c r="S66" s="192">
-        <f>SUM(Q66:R66)</f>
+      <c r="S66" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T66" s="5" t="s">
@@ -48510,14 +51396,14 @@
       <c r="P67" s="109">
         <v>13</v>
       </c>
-      <c r="Q67" s="193">
+      <c r="Q67" s="152">
         <v>0</v>
       </c>
-      <c r="R67" s="193">
+      <c r="R67" s="152">
         <v>0</v>
       </c>
-      <c r="S67" s="192">
-        <f>SUM(Q67:R67)</f>
+      <c r="S67" s="151">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T67" s="5" t="s">
@@ -48531,14 +51417,14 @@
       <c r="P68" s="109">
         <v>14</v>
       </c>
-      <c r="Q68" s="193">
+      <c r="Q68" s="152">
         <v>0</v>
       </c>
-      <c r="R68" s="193">
+      <c r="R68" s="152">
         <v>1</v>
       </c>
-      <c r="S68" s="192">
-        <f>SUM(Q68:R68)</f>
+      <c r="S68" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T68" s="5" t="s">
@@ -48552,14 +51438,14 @@
       <c r="P69" s="109">
         <v>15</v>
       </c>
-      <c r="Q69" s="193">
+      <c r="Q69" s="152">
         <v>0</v>
       </c>
-      <c r="R69" s="193">
+      <c r="R69" s="152">
         <v>0</v>
       </c>
-      <c r="S69" s="192">
-        <f>SUM(Q69:R69)</f>
+      <c r="S69" s="151">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T69" s="5" t="s">
@@ -48573,14 +51459,14 @@
       <c r="P70" s="109">
         <v>16</v>
       </c>
-      <c r="Q70" s="193">
+      <c r="Q70" s="152">
         <v>1</v>
       </c>
-      <c r="R70" s="193">
+      <c r="R70" s="152">
         <v>0</v>
       </c>
-      <c r="S70" s="192">
-        <f>SUM(Q70:R70)</f>
+      <c r="S70" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T70" s="5" t="s">
@@ -48594,14 +51480,14 @@
       <c r="P71" s="109">
         <v>17</v>
       </c>
-      <c r="Q71" s="193">
+      <c r="Q71" s="152">
         <v>1</v>
       </c>
-      <c r="R71" s="193">
+      <c r="R71" s="152">
         <v>0</v>
       </c>
-      <c r="S71" s="192">
-        <f>SUM(Q71:R71)</f>
+      <c r="S71" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T71" s="5" t="s">
@@ -48615,14 +51501,14 @@
       <c r="P72" s="109">
         <v>18</v>
       </c>
-      <c r="Q72" s="193">
+      <c r="Q72" s="152">
         <v>1</v>
       </c>
-      <c r="R72" s="193">
+      <c r="R72" s="152">
         <v>0</v>
       </c>
-      <c r="S72" s="192">
-        <f>SUM(Q72:R72)</f>
+      <c r="S72" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T72" s="5" t="s">
@@ -48636,14 +51522,14 @@
       <c r="P73" s="109">
         <v>19</v>
       </c>
-      <c r="Q73" s="193">
+      <c r="Q73" s="152">
         <v>1</v>
       </c>
-      <c r="R73" s="193">
+      <c r="R73" s="152">
         <v>0</v>
       </c>
-      <c r="S73" s="192">
-        <f>SUM(Q73:R73)</f>
+      <c r="S73" s="151">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T73" s="5" t="s">
@@ -48657,14 +51543,14 @@
       <c r="P74" s="109">
         <v>20</v>
       </c>
-      <c r="Q74" s="193">
+      <c r="Q74" s="152">
         <v>0</v>
       </c>
-      <c r="R74" s="193">
+      <c r="R74" s="152">
         <v>0</v>
       </c>
-      <c r="S74" s="192">
-        <f>SUM(Q74:R74)</f>
+      <c r="S74" s="151">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T74" s="5" t="s">
@@ -48678,7 +51564,7 @@
       <c r="P75" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="Q75" s="191">
+      <c r="Q75" s="150">
         <v>1</v>
       </c>
       <c r="R75" s="15" t="s">
@@ -48690,13 +51576,13 @@
       <c r="P76" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="Q76" s="189" t="s">
+      <c r="Q76" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="R76" s="189" t="s">
+      <c r="R76" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="S76" s="190" t="s">
+      <c r="S76" s="149" t="s">
         <v>152</v>
       </c>
     </row>
@@ -48725,10 +51611,10 @@
     </row>
     <row r="78" spans="16:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="P78" s="86"/>
-      <c r="Q78" s="189" t="s">
+      <c r="Q78" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="189" t="s">
+      <c r="R78" s="148" t="s">
         <v>147</v>
       </c>
       <c r="S78" s="86" t="s">
@@ -48736,7 +51622,7 @@
       </c>
     </row>
     <row r="79" spans="16:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="P79" s="188" t="s">
+      <c r="P79" s="147" t="s">
         <v>149</v>
       </c>
       <c r="Q79" s="87">
@@ -48754,10 +51640,10 @@
     </row>
     <row r="80" spans="16:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="P80" s="86"/>
-      <c r="Q80" s="189" t="s">
+      <c r="Q80" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="R80" s="189" t="s">
+      <c r="R80" s="148" t="s">
         <v>147</v>
       </c>
       <c r="S80" s="86" t="s">
@@ -48765,7 +51651,7 @@
       </c>
     </row>
     <row r="81" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="P81" s="188" t="s">
+      <c r="P81" s="147" t="s">
         <v>145</v>
       </c>
       <c r="Q81" s="87">
@@ -48782,12 +51668,12 @@
       </c>
     </row>
     <row r="82" spans="16:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S82" s="187" t="s">
+      <c r="S82" s="146" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="S83" s="186">
+      <c r="S83" s="145">
         <f xml:space="preserve"> 2.1 * S81 - S79</f>
         <v>618.06259038000007</v>
       </c>
@@ -48809,22 +51695,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E318F0A-6D4C-4EB0-ABAF-0253E8ADBA3F}">
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="28.88671875" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48878,211 +51771,211 @@
       <c r="U16" s="53"/>
       <c r="V16" s="53"/>
     </row>
-    <row r="17" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T17" s="53"/>
       <c r="U17" s="53"/>
       <c r="V17" s="53"/>
     </row>
-    <row r="18" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
       <c r="V18" s="53"/>
     </row>
-    <row r="20" spans="2:22" ht="83.4" x14ac:dyDescent="4.1500000000000004">
+    <row r="20" spans="3:22" ht="83.4" x14ac:dyDescent="4.1500000000000004">
       <c r="T20" s="52"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="J21" s="184" t="s">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="U21" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="184"/>
+      <c r="V21" s="203"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M22" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
+      <c r="U22" s="204"/>
+      <c r="V22" s="204"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="46"/>
-      <c r="C23" s="48" t="s">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M23" s="46"/>
+      <c r="N23" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="O23" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="P23" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="Q23" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="R23" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="S23" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="43" t="s">
+      <c r="T23" s="5"/>
+      <c r="U23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K23" s="50">
+      <c r="V23" s="50">
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M24" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="5">
+      <c r="N24" s="5">
         <v>15</v>
       </c>
-      <c r="D24" s="5">
+      <c r="O24" s="5">
         <v>20</v>
       </c>
-      <c r="E24" s="5">
+      <c r="P24" s="5">
         <v>35</v>
       </c>
-      <c r="F24" s="5">
+      <c r="Q24" s="5">
         <v>35</v>
       </c>
-      <c r="G24" s="5">
+      <c r="R24" s="5">
         <v>45</v>
       </c>
-      <c r="H24" s="40">
+      <c r="S24" s="40">
         <v>40</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="39" t="s">
+      <c r="T24" s="5"/>
+      <c r="U24" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="41">
+      <c r="V24" s="41">
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="42" t="s">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5">
         <v>35</v>
       </c>
-      <c r="E25" s="5">
+      <c r="P25" s="5">
         <v>20</v>
       </c>
-      <c r="F25" s="5">
+      <c r="Q25" s="5">
         <v>35</v>
       </c>
-      <c r="G25" s="5">
+      <c r="R25" s="5">
         <v>40</v>
       </c>
-      <c r="H25" s="40">
+      <c r="S25" s="40">
         <v>40</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="39" t="s">
+      <c r="T25" s="5"/>
+      <c r="U25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="41">
+      <c r="V25" s="41">
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="42" t="s">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M26" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
         <v>15</v>
       </c>
-      <c r="F26" s="5">
+      <c r="Q26" s="5">
         <v>50</v>
       </c>
-      <c r="G26" s="5">
+      <c r="R26" s="5">
         <v>45</v>
       </c>
-      <c r="H26" s="40">
+      <c r="S26" s="40">
         <v>25</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="39" t="s">
+      <c r="T26" s="5"/>
+      <c r="U26" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="41">
+      <c r="V26" s="41">
         <v>4.0500000000000007</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="42" t="s">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M27" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5">
         <v>35</v>
       </c>
-      <c r="G27" s="5">
+      <c r="R27" s="5">
         <v>20</v>
       </c>
-      <c r="H27" s="40">
+      <c r="S27" s="40">
         <v>20</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="39" t="s">
+      <c r="T27" s="5"/>
+      <c r="U27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="41">
+      <c r="V27" s="41">
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="42" t="s">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M28" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5">
         <v>15</v>
       </c>
-      <c r="H28" s="40">
+      <c r="S28" s="40">
         <v>40</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="39" t="s">
+      <c r="T28" s="5"/>
+      <c r="U28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="41">
+      <c r="V28" s="41">
         <v>2.7</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="47" t="s">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M29" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="44">
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="44">
         <v>35</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="45" t="s">
+      <c r="T29" s="5"/>
+      <c r="U29" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="51">
+      <c r="V29" s="51">
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -49093,10 +51986,315 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="M32" s="209" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="O32" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="P32" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q32" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="R32" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="S32" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="U32" s="109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M33" s="109"/>
+      <c r="N33" s="115">
+        <v>1</v>
+      </c>
+      <c r="O33" s="115">
+        <v>0</v>
+      </c>
+      <c r="P33" s="115">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="115">
+        <v>0</v>
+      </c>
+      <c r="R33" s="115">
+        <v>0</v>
+      </c>
+      <c r="S33" s="115">
+        <v>1</v>
+      </c>
+      <c r="T33" s="115">
+        <v>0</v>
+      </c>
+      <c r="U33" s="109">
+        <f>SUM(N33:T33)</f>
+        <v>3</v>
+      </c>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="V34" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="W34" s="109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M35" s="209" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="117">
+        <v>1</v>
+      </c>
+      <c r="O35" s="117">
+        <v>1</v>
+      </c>
+      <c r="P35" s="117">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
+      <c r="U35" s="109">
+        <f>SUMPRODUCT($N$33:$T$33,N35:T35)</f>
+        <v>2</v>
+      </c>
+      <c r="V35" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="W35" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M36" s="209" t="s">
+        <v>167</v>
+      </c>
+      <c r="N36" s="117">
+        <v>1</v>
+      </c>
+      <c r="O36" s="117">
+        <v>1</v>
+      </c>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="117">
+        <v>1</v>
+      </c>
+      <c r="R36" s="117"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="109">
+        <f>SUMPRODUCT($N$33:$T$33,N36:T36)</f>
+        <v>1</v>
+      </c>
+      <c r="V36" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="W36" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M37" s="209" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" s="117">
+        <v>1</v>
+      </c>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="117">
+        <v>1</v>
+      </c>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117">
+        <v>1</v>
+      </c>
+      <c r="U37" s="109">
+        <f>SUMPRODUCT($N$33:$T$33,N37:T37)</f>
+        <v>2</v>
+      </c>
+      <c r="V37" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="W37" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M38" s="209" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117">
+        <v>1</v>
+      </c>
+      <c r="P38" s="117">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="117">
+        <v>1</v>
+      </c>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117">
+        <v>1</v>
+      </c>
+      <c r="T38" s="117">
+        <v>1</v>
+      </c>
+      <c r="U38" s="109">
+        <f>SUMPRODUCT($N$33:$T$33,N38:T38)</f>
+        <v>2</v>
+      </c>
+      <c r="V38" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="W38" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M39" s="209" t="s">
+        <v>164</v>
+      </c>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117">
+        <v>1</v>
+      </c>
+      <c r="S39" s="117">
+        <v>1</v>
+      </c>
+      <c r="T39" s="117"/>
+      <c r="U39" s="109">
+        <f>SUMPRODUCT($N$33:$T$33,N39:T39)</f>
+        <v>1</v>
+      </c>
+      <c r="V39" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="W39" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M40" s="209" t="s">
+        <v>163</v>
+      </c>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="117">
+        <v>1</v>
+      </c>
+      <c r="R40" s="117">
+        <v>1</v>
+      </c>
+      <c r="S40" s="117">
+        <v>1</v>
+      </c>
+      <c r="T40" s="117"/>
+      <c r="U40" s="109">
+        <f>SUMPRODUCT($N$33:$T$33,N40:T40)</f>
+        <v>1</v>
+      </c>
+      <c r="V40" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="W40" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="209" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="117">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="117">
+        <v>1</v>
+      </c>
+      <c r="R41" s="117"/>
+      <c r="S41" s="117"/>
+      <c r="T41" s="117">
+        <v>1</v>
+      </c>
+      <c r="U41" s="121">
+        <f>SUMPRODUCT($N$33:$T$33,N41:T41)</f>
+        <v>1</v>
+      </c>
+      <c r="V41" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="W41" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="208" t="s">
+        <v>160</v>
+      </c>
+      <c r="N42" s="117">
+        <v>3.15</v>
+      </c>
+      <c r="O42" s="117">
+        <v>3.6</v>
+      </c>
+      <c r="P42" s="117">
+        <v>3.15</v>
+      </c>
+      <c r="Q42" s="117">
+        <v>4.05</v>
+      </c>
+      <c r="R42" s="117">
+        <v>2.85</v>
+      </c>
+      <c r="S42" s="117">
+        <v>2.7</v>
+      </c>
+      <c r="T42" s="207">
+        <v>3.6</v>
+      </c>
+      <c r="U42" s="206">
+        <f>SUMPRODUCT(N33:T33,N42:T42)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="U43" s="205" t="s">
+        <v>159</v>
+      </c>
+      <c r="V43" s="205"/>
+      <c r="W43" s="205"/>
+    </row>
+    <row r="44" spans="13:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J21:K22"/>
+  <mergeCells count="2">
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="U43:W43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
